--- a/xlsx/尼可罗·马基亚维利_intext.xlsx
+++ b/xlsx/尼可罗·马基亚维利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>尼可罗·马基亚维利</t>
   </si>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國際關係現實主義</t>
+    <t>国际关系现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E8%AB%BE%E8%8A%AC</t>
   </si>
   <si>
-    <t>色諾芬</t>
+    <t>色诺芬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A1%94%E5%85%8B</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E8%B7%AF%E6%96%AF%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%89%98%C2%B7%E6%9D%8E%E7%B6%AD</t>
   </si>
   <si>
-    <t>蒂托·李維</t>
+    <t>蒂托·李维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>托馬斯·霍布斯</t>
+    <t>托马斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -221,25 +221,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>歷史學家</t>
+    <t>历史学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%AC%AC%E5%A5%87%E5%AE%B6%E6%97%8F</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%BD%9B%E7%B4%8D%E7%BE%85%E6%8B%89</t>
   </si>
   <si>
-    <t>薩佛納羅拉</t>
+    <t>萨佛纳罗拉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Piero_Soderini</t>
@@ -323,9 +323,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>神圣罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E9%9B%B7%C2%B7%E5%8D%9A%E5%90%89%E4%BA%9A</t>
   </si>
   <si>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A7%E5%8D%81%E4%B8%96</t>
   </si>
   <si>
-    <t>利奧十世</t>
+    <t>利奥十世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%86%E4%B8%81</t>
@@ -353,9 +350,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%89%98%C2%B7%E6%9D%8E%E7%BB%B4</t>
   </si>
   <si>
-    <t>蒂托·李维</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E8%8A%92%E4%B8%83%E4%B8%96</t>
   </si>
   <si>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E7%9A%84%E8%AB%96</t>
   </si>
   <si>
-    <t>目的論</t>
+    <t>目的论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E6%96%AF%E8%B0%9F</t>
@@ -383,25 +377,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
+    <t>唯心主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E7%94%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>實用主義</t>
+    <t>实用主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E4%BC%A6%E8%90%A8%E5%8F%B2</t>
@@ -413,9 +407,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
   </si>
   <si>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MusicBrainz</t>
@@ -497,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2450,7 +2441,7 @@
         <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2476,10 +2467,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2505,10 +2496,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2534,10 +2525,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2563,10 +2554,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2621,10 +2612,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2650,10 +2641,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2679,10 +2670,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2708,10 +2699,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2737,10 +2728,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2766,10 +2757,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2795,10 +2786,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2824,10 +2815,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2853,10 +2844,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2882,10 +2873,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -2911,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -2940,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2969,10 +2960,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -2998,10 +2989,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3027,10 +3018,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3056,10 +3047,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3085,10 +3076,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3114,10 +3105,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3143,10 +3134,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3172,10 +3163,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3201,10 +3192,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3230,10 +3221,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3259,10 +3250,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3288,10 +3279,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3317,10 +3308,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3346,10 +3337,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3375,10 +3366,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3404,10 +3395,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3433,10 +3424,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3462,10 +3453,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3491,10 +3482,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G90" t="n">
         <v>9</v>
@@ -3520,10 +3511,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3549,10 +3540,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
